--- a/materials/exp_lists/session_1_12.xlsx
+++ b/materials/exp_lists/session_1_12.xlsx
@@ -164,7 +164,7 @@
     <t>kovaru = терка?</t>
   </si>
   <si>
-    <t>reskane</t>
+    <t>reketre</t>
   </si>
   <si>
     <t>клубок</t>
@@ -428,10 +428,10 @@
     <t>pafinu</t>
   </si>
   <si>
-    <t>reskane.wav</t>
-  </si>
-  <si>
-    <t>reskane = ремень?</t>
+    <t>reketre.wav</t>
+  </si>
+  <si>
+    <t>reketre = ремень?</t>
   </si>
   <si>
     <t>rantare</t>
